--- a/biology/Médecine/Surprésentéisme/Surprésentéisme.xlsx
+++ b/biology/Médecine/Surprésentéisme/Surprésentéisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surpr%C3%A9sent%C3%A9isme</t>
+          <t>Surprésentéisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le surprésentéisme (traduction de l'expression anglaise sickness presenteeism) ou présentéisme pathologique[1] est le fait de travailler tout en étant malade alors que son état de santé mériterait un arrêt maladie. La dépendance au travail, ou workaholism en anglais, y est rattachée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le surprésentéisme (traduction de l'expression anglaise sickness presenteeism) ou présentéisme pathologique est le fait de travailler tout en étant malade alors que son état de santé mériterait un arrêt maladie. La dépendance au travail, ou workaholism en anglais, y est rattachée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surpr%C3%A9sent%C3%A9isme</t>
+          <t>Surprésentéisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgique
-En Belgique, en 2013, le taux de surprésentéisme est estimé entre 40 et 50 %[2].
-France
-Ce phénomène est en augmentation avec la crise économique. Environ 55 % des travailleurs français s'adonneraient au surprésentéisme au moins une fois par an. Au total, le surprésentéisme représente en moyenne 10 jours par travailleur et par an[3][source insuffisante].
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, en 2013, le taux de surprésentéisme est estimé entre 40 et 50 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Surprésentéisme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surpr%C3%A9sent%C3%A9isme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Incidence par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phénomène est en augmentation avec la crise économique. Environ 55 % des travailleurs français s'adonneraient au surprésentéisme au moins une fois par an. Au total, le surprésentéisme représente en moyenne 10 jours par travailleur et par an[source insuffisante].
 </t>
         </is>
       </c>
